--- a/src/main/webapp/resources/template/question.xlsx
+++ b/src/main/webapp/resources/template/question.xlsx
@@ -10,17 +10,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$R$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$R$1</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
-  <si>
-    <t>填空题</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="81">
   <si>
     <t>题目</t>
   </si>
@@ -81,23 +78,298 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>安全行车、文明驾驶基础知识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>安全行车、文明驾驶基础知识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>安全行车、文明驾驶基础知识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>安全行车、文明驾驶基础知识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>安全行车、文明驾驶基础知识安全行车、文明驾驶基础知识</t>
+    <t>单选题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在Java中，包com中定义了类TestUtil，在com的子包util中定义了同名类TestUtil，给定如下Java代码，编译运行时，将发生</t>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建了一个com.TestUtil对象</t>
+  </si>
+  <si>
+    <t>创建了一个com.util.TestUtil对象</t>
+  </si>
+  <si>
+    <t>创建了一个com.TestUtil对象和一个com.util.TestUtil对象</t>
+  </si>
+  <si>
+    <t>编译无法通过</t>
+  </si>
+  <si>
+    <t>在Java中，如果要在字符串类型对象s="java"中，得到字母 'v' 出现的位置，可使用以下（ ）语句</t>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s.matches('v');</t>
+  </si>
+  <si>
+    <t>s.charAt('v');</t>
+  </si>
+  <si>
+    <t>s.indexOf('v');</t>
+  </si>
+  <si>
+    <t>s.substring('v');</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单选题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">给定某Java程序的main方法如下，该程序编译运行后的结果是（ ）。   
+public static void main(String[] args) {
+    String str=null;
+    str.concat("abc");
+    str.concat("def");
+    System.out.println(str);
+}
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出：null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出：abcdef</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编译错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运行时出现异常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">给定一个Java程序的代码如下所示，则编译运行后，输出结果是（ ）。
+public class Test {
+    int count = 9;
+    public void count1() {
+        count = 10;
+        System.out.println("count1=" + count);
+    }
+    public void count2() {
+        System.out.println("count2=" + count);
+    }
+    public static void main(String args[]) {
+        Test t = new Test();
+        t.count1();
+        t.count2();
+    }
+}
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">count1=10
+        count2=9
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">count1=9
+        count2=10
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>count1=10
+        count2=10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">count1=9
+        count2=9
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有关Java中的类和对象，以下说法错误的是（ ）。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同一个类的所有对象都拥有相同的特征和行为</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 类和对象一样，只是说法不同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对象是具有属性和行为的实体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类规定了对象拥有的特征和行为</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在Java中，下面对于构造函数的描述正确的是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类必须显式定义构造函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">构造函数的返回类型是void </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>构造函数和类有相同的名称，并且不能带任何参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个类可以定义多个构造函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下列选项中关于Java中封装的说法错误的是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>封装就是将属性私有化，提供公有的方法访问私有属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性的访问方法包括setter方法和getter方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>setter方法用于赋值、getter方法用于取值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类的属性必须进行封装，否则无法通过编译</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在Java语言中，下列关于类的继承的描述，正确的是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个类可以继承多个父类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个类可以具有多个子类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子类一定比父类有更多的成员方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如下程序的输出结果为（）
+public class Test1 {
+ public Test1(){
+  System.out.println(number++);
+ }
+ static int number;
+ public void change(){
+  System.out.println(number++);
+ }
+ public static void main(String[] args) {
+  Test1 test=new Test1();
+  test.change();
+  System.out.println(Test1.number);
+ }
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0
+1
+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0
+1
+2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1
+2
+3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0
+2
+2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>java基础</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在Java中，以下（ ）不属于Java基本数据类型。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>double</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boolean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>java基础</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>java基础</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -130,25 +402,20 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF666666"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -187,12 +454,12 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -497,110 +764,401 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:R11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="23.25" style="3" customWidth="1"/>
-    <col min="2" max="2" width="14.125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="11.75" style="3" customWidth="1"/>
-    <col min="4" max="4" width="16.25" style="3" customWidth="1"/>
-    <col min="5" max="12" width="9" style="3"/>
-    <col min="13" max="13" width="16.25" style="3" customWidth="1"/>
-    <col min="14" max="14" width="17.625" style="3" customWidth="1"/>
-    <col min="15" max="15" width="32.5" style="3" customWidth="1"/>
-    <col min="16" max="16" width="12.75" style="3" customWidth="1"/>
-    <col min="17" max="17" width="16" style="3" customWidth="1"/>
-    <col min="18" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="23.25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.75" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.25" style="2" customWidth="1"/>
+    <col min="5" max="12" width="9" style="2"/>
+    <col min="13" max="13" width="16.25" style="2" customWidth="1"/>
+    <col min="14" max="14" width="17.625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="32.5" style="2" customWidth="1"/>
+    <col min="16" max="16" width="12.75" style="2" customWidth="1"/>
+    <col min="17" max="17" width="16" style="2" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="R1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="K2" s="2">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
+      <c r="M2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
+      <c r="C3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2">
-        <v>5</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>21</v>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="175.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="364.5" x14ac:dyDescent="0.15">
+      <c r="A6" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A9" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
